--- a/doc/layarwiki/progress_R.xlsx
+++ b/doc/layarwiki/progress_R.xlsx
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -601,7 +601,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="1">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:4">
